--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2503.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2503.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.901795585187187</v>
+        <v>0.258999228477478</v>
       </c>
       <c r="B1">
-        <v>4.948060916556634</v>
+        <v>2.093186616897583</v>
       </c>
       <c r="C1">
-        <v>2.837383375698267</v>
+        <v>3.549638748168945</v>
       </c>
       <c r="D1">
-        <v>2.656638823736221</v>
+        <v>3.61506175994873</v>
       </c>
       <c r="E1">
-        <v>3.482829075372053</v>
+        <v>0.8363673090934753</v>
       </c>
     </row>
   </sheetData>
